--- a/data/output/FV2504_FV2410/UTILMD/55065.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55065.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4338" uniqueCount="371">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4359" uniqueCount="371">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1236,6 +1236,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U193" totalsRowShown="0">
+  <autoFilter ref="A1:U193"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1525,7 +1555,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10879,5 +10912,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55065.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55065.xlsx
@@ -2251,7 +2251,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2"/>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4971,7 +4971,7 @@
         <v>322</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -5173,7 +5173,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5373,7 +5373,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5675,7 +5675,7 @@
         <v>324</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5853,54 +5853,54 @@
       <c r="V72" s="5"/>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E73" s="5"/>
+      <c r="E73" s="2"/>
       <c r="F73" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5" t="s">
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K73" s="5" t="s">
+      <c r="K73" s="2" t="s">
         <v>325</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M73" s="5" t="s">
+      <c r="M73" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N73" s="5" t="s">
+      <c r="N73" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O73" s="5" t="s">
+      <c r="O73" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="P73" s="5"/>
+      <c r="P73" s="2"/>
       <c r="Q73" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5" t="s">
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="V73" s="5" t="s">
+      <c r="V73" s="2" t="s">
         <v>325</v>
       </c>
     </row>
@@ -6081,54 +6081,54 @@
       <c r="V76" s="5"/>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E77" s="5"/>
+      <c r="E77" s="2"/>
       <c r="F77" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5" t="s">
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="K77" s="5" t="s">
+      <c r="K77" s="2" t="s">
         <v>326</v>
       </c>
       <c r="L77" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M77" s="5" t="s">
+      <c r="M77" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N77" s="5" t="s">
+      <c r="N77" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O77" s="5" t="s">
+      <c r="O77" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="P77" s="5"/>
+      <c r="P77" s="2"/>
       <c r="Q77" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5" t="s">
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="V77" s="5" t="s">
+      <c r="V77" s="2" t="s">
         <v>326</v>
       </c>
     </row>
@@ -6331,7 +6331,7 @@
         <v>327</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6541,7 +6541,7 @@
         <v>329</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6751,7 +6751,7 @@
         <v>330</v>
       </c>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6879,52 +6879,52 @@
       <c r="V91" s="5"/>
     </row>
     <row r="92" spans="1:22">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E92" s="5"/>
+      <c r="E92" s="2"/>
       <c r="F92" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5" t="s">
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K92" s="5"/>
+      <c r="K92" s="2"/>
       <c r="L92" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M92" s="5" t="s">
+      <c r="M92" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N92" s="5" t="s">
+      <c r="N92" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O92" s="5" t="s">
+      <c r="O92" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P92" s="5"/>
+      <c r="P92" s="2"/>
       <c r="Q92" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="R92" s="5"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="5"/>
-      <c r="U92" s="5" t="s">
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="V92" s="5"/>
+      <c r="V92" s="2"/>
     </row>
     <row r="93" spans="1:22">
       <c r="A93" s="5" t="s">
@@ -7069,7 +7069,7 @@
         <v>331</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -7559,7 +7559,7 @@
         <v>334</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -7829,7 +7829,7 @@
         <v>336</v>
       </c>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -8099,7 +8099,7 @@
         <v>325</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -8305,7 +8305,7 @@
         <v>325</v>
       </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -8511,7 +8511,7 @@
         <v>325</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8717,7 +8717,7 @@
         <v>325</v>
       </c>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -9031,7 +9031,7 @@
         <v>337</v>
       </c>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -9159,52 +9159,52 @@
       <c r="V134" s="5"/>
     </row>
     <row r="135" spans="1:22">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D135" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E135" s="5"/>
+      <c r="E135" s="2"/>
       <c r="F135" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5" t="s">
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K135" s="5"/>
+      <c r="K135" s="2"/>
       <c r="L135" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M135" s="5" t="s">
+      <c r="M135" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N135" s="5" t="s">
+      <c r="N135" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O135" s="5" t="s">
+      <c r="O135" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P135" s="5"/>
+      <c r="P135" s="2"/>
       <c r="Q135" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="R135" s="5"/>
-      <c r="S135" s="5"/>
-      <c r="T135" s="5"/>
-      <c r="U135" s="5" t="s">
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
+      <c r="T135" s="2"/>
+      <c r="U135" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="V135" s="5"/>
+      <c r="V135" s="2"/>
     </row>
     <row r="136" spans="1:22">
       <c r="A136" s="5" t="s">
@@ -9349,7 +9349,7 @@
         <v>338</v>
       </c>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -9619,7 +9619,7 @@
         <v>339</v>
       </c>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -9747,52 +9747,52 @@
       <c r="V145" s="5"/>
     </row>
     <row r="146" spans="1:22">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C146" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="D146" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E146" s="5"/>
+      <c r="E146" s="2"/>
       <c r="F146" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5" t="s">
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K146" s="5"/>
+      <c r="K146" s="2"/>
       <c r="L146" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M146" s="5" t="s">
+      <c r="M146" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N146" s="5" t="s">
+      <c r="N146" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O146" s="5" t="s">
+      <c r="O146" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P146" s="5"/>
+      <c r="P146" s="2"/>
       <c r="Q146" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="R146" s="5"/>
-      <c r="S146" s="5"/>
-      <c r="T146" s="5"/>
-      <c r="U146" s="5" t="s">
+      <c r="R146" s="2"/>
+      <c r="S146" s="2"/>
+      <c r="T146" s="2"/>
+      <c r="U146" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="V146" s="5"/>
+      <c r="V146" s="2"/>
     </row>
     <row r="147" spans="1:22">
       <c r="A147" s="5" t="s">
@@ -9911,52 +9911,52 @@
       <c r="V148" s="5"/>
     </row>
     <row r="149" spans="1:22">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="C149" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D149" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E149" s="5"/>
+      <c r="E149" s="2"/>
       <c r="F149" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
-      <c r="I149" s="5"/>
-      <c r="J149" s="5" t="s">
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K149" s="5"/>
+      <c r="K149" s="2"/>
       <c r="L149" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M149" s="5" t="s">
+      <c r="M149" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N149" s="5" t="s">
+      <c r="N149" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O149" s="5" t="s">
+      <c r="O149" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P149" s="5"/>
+      <c r="P149" s="2"/>
       <c r="Q149" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="R149" s="5"/>
-      <c r="S149" s="5"/>
-      <c r="T149" s="5"/>
-      <c r="U149" s="5" t="s">
+      <c r="R149" s="2"/>
+      <c r="S149" s="2"/>
+      <c r="T149" s="2"/>
+      <c r="U149" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="V149" s="5"/>
+      <c r="V149" s="2"/>
     </row>
     <row r="150" spans="1:22">
       <c r="A150" s="5" t="s">
@@ -10099,7 +10099,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -10519,7 +10519,7 @@
         <v>340</v>
       </c>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -10647,52 +10647,52 @@
       <c r="V162" s="5"/>
     </row>
     <row r="163" spans="1:22">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C163" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D163" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E163" s="5"/>
+      <c r="E163" s="2"/>
       <c r="F163" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="5"/>
-      <c r="J163" s="5" t="s">
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K163" s="5"/>
+      <c r="K163" s="2"/>
       <c r="L163" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M163" s="5" t="s">
+      <c r="M163" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N163" s="5" t="s">
+      <c r="N163" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O163" s="5" t="s">
+      <c r="O163" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P163" s="5"/>
+      <c r="P163" s="2"/>
       <c r="Q163" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="R163" s="5"/>
-      <c r="S163" s="5"/>
-      <c r="T163" s="5"/>
-      <c r="U163" s="5" t="s">
+      <c r="R163" s="2"/>
+      <c r="S163" s="2"/>
+      <c r="T163" s="2"/>
+      <c r="U163" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="V163" s="5"/>
+      <c r="V163" s="2"/>
     </row>
     <row r="164" spans="1:22">
       <c r="A164" s="5" t="s">
@@ -10811,52 +10811,52 @@
       <c r="V165" s="5"/>
     </row>
     <row r="166" spans="1:22">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D166" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E166" s="5"/>
+      <c r="E166" s="2"/>
       <c r="F166" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5" t="s">
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K166" s="5"/>
+      <c r="K166" s="2"/>
       <c r="L166" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M166" s="5" t="s">
+      <c r="M166" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N166" s="5" t="s">
+      <c r="N166" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O166" s="5" t="s">
+      <c r="O166" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P166" s="5"/>
+      <c r="P166" s="2"/>
       <c r="Q166" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="R166" s="5"/>
-      <c r="S166" s="5"/>
-      <c r="T166" s="5"/>
-      <c r="U166" s="5" t="s">
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
+      <c r="T166" s="2"/>
+      <c r="U166" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="V166" s="5"/>
+      <c r="V166" s="2"/>
     </row>
     <row r="167" spans="1:22">
       <c r="A167" s="5" t="s">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -11419,7 +11419,7 @@
         <v>341</v>
       </c>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -11547,52 +11547,52 @@
       <c r="V179" s="5"/>
     </row>
     <row r="180" spans="1:22">
-      <c r="A180" s="5" t="s">
+      <c r="A180" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C180" s="5" t="s">
+      <c r="C180" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D180" s="5" t="s">
+      <c r="D180" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E180" s="5"/>
+      <c r="E180" s="2"/>
       <c r="F180" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G180" s="5"/>
-      <c r="H180" s="5"/>
-      <c r="I180" s="5"/>
-      <c r="J180" s="5" t="s">
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K180" s="5"/>
+      <c r="K180" s="2"/>
       <c r="L180" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M180" s="5" t="s">
+      <c r="M180" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N180" s="5" t="s">
+      <c r="N180" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O180" s="5" t="s">
+      <c r="O180" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P180" s="5"/>
+      <c r="P180" s="2"/>
       <c r="Q180" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="R180" s="5"/>
-      <c r="S180" s="5"/>
-      <c r="T180" s="5"/>
-      <c r="U180" s="5" t="s">
+      <c r="R180" s="2"/>
+      <c r="S180" s="2"/>
+      <c r="T180" s="2"/>
+      <c r="U180" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="V180" s="5"/>
+      <c r="V180" s="2"/>
     </row>
     <row r="181" spans="1:22">
       <c r="A181" s="5" t="s">
@@ -11711,52 +11711,52 @@
       <c r="V182" s="5"/>
     </row>
     <row r="183" spans="1:22">
-      <c r="A183" s="5" t="s">
+      <c r="A183" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B183" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C183" s="5" t="s">
+      <c r="C183" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D183" s="5" t="s">
+      <c r="D183" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E183" s="5"/>
+      <c r="E183" s="2"/>
       <c r="F183" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G183" s="5"/>
-      <c r="H183" s="5"/>
-      <c r="I183" s="5"/>
-      <c r="J183" s="5" t="s">
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K183" s="5"/>
+      <c r="K183" s="2"/>
       <c r="L183" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M183" s="5" t="s">
+      <c r="M183" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N183" s="5" t="s">
+      <c r="N183" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O183" s="5" t="s">
+      <c r="O183" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P183" s="5"/>
+      <c r="P183" s="2"/>
       <c r="Q183" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="R183" s="5"/>
-      <c r="S183" s="5"/>
-      <c r="T183" s="5"/>
-      <c r="U183" s="5" t="s">
+      <c r="R183" s="2"/>
+      <c r="S183" s="2"/>
+      <c r="T183" s="2"/>
+      <c r="U183" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="V183" s="5"/>
+      <c r="V183" s="2"/>
     </row>
     <row r="184" spans="1:22">
       <c r="A184" s="5" t="s">
@@ -11899,7 +11899,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -12129,48 +12129,48 @@
       <c r="V190" s="5"/>
     </row>
     <row r="191" spans="1:22">
-      <c r="A191" s="5" t="s">
+      <c r="A191" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B191" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C191" s="5"/>
-      <c r="D191" s="5" t="s">
+      <c r="C191" s="2"/>
+      <c r="D191" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E191" s="5"/>
+      <c r="E191" s="2"/>
       <c r="F191" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="5"/>
-      <c r="J191" s="5" t="s">
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K191" s="5"/>
+      <c r="K191" s="2"/>
       <c r="L191" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M191" s="5" t="s">
+      <c r="M191" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N191" s="5"/>
-      <c r="O191" s="5" t="s">
+      <c r="N191" s="2"/>
+      <c r="O191" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="P191" s="5"/>
+      <c r="P191" s="2"/>
       <c r="Q191" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="R191" s="5"/>
-      <c r="S191" s="5"/>
-      <c r="T191" s="5"/>
-      <c r="U191" s="5" t="s">
+      <c r="R191" s="2"/>
+      <c r="S191" s="2"/>
+      <c r="T191" s="2"/>
+      <c r="U191" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="V191" s="5"/>
+      <c r="V191" s="2"/>
     </row>
     <row r="192" spans="1:22">
       <c r="A192" s="5" t="s">
